--- a/KMWS03/KMWS03/yêu cầu/要件4_KDWS03日別実績の修正(スマホ)_成果物一覧.xlsx
+++ b/KMWS03/KMWS03/yêu cầu/要件4_KDWS03日別実績の修正(スマホ)_成果物一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazuya_ushigaki\Documents\12_TuanTeam\01設計\02_メタウォーター_代行確認\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\00_JP⇒VN説明会\20230922_1490_メタウォーター対応\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCD2E8D-FC06-480C-8668-086AACF0EEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A50E51-E9D8-4345-861B-AB28A809923D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成果物一覧" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>パス</t>
     <phoneticPr fontId="1"/>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>画面設計書-KDWS03-日別実績の修正.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1020,7 +1024,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1179,7 +1183,9 @@
       <c r="D14" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
